--- a/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
+++ b/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
@@ -18,9 +18,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市永和區永福段08230000地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>邱若山</t>
+  </si>
+  <si>
+    <t>80年06月13日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-18</t>
+  </si>
+  <si>
+    <t>林淑芬</t>
+  </si>
+  <si>
+    <t>tmp7b501</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,75 +116,39 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市永和區永福段0823-0000 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>邱若山</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>80年06月 13日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
+    <t>新北市永和區永福段02017000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>80年06月130</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市永和區永福段02017-000 建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>80年06月 13 0</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
     <t>.(超過五年）‘</t>
   </si>
   <si>
@@ -131,37 +170,31 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>toyota rav4 rod</t>
-  </si>
-  <si>
-    <t>林淑芬</t>
-  </si>
-  <si>
-    <t>100 年 03 月01曰</t>
-  </si>
-  <si>
-    <t>n-r-ry=*=r 貝賣</t>
+    <t>toyotarav4rod</t>
+  </si>
+  <si>
+    <t>100年03月01曰</t>
+  </si>
+  <si>
+    <t>nrry=*=r貝賣</t>
   </si>
   <si>
     <t>幣別</t>
   </si>
   <si>
-    <t>新臺幣總額_或折合新臺幣總額</t>
+    <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>'邱若山</t>
-  </si>
-  <si>
     <t>邱〇由</t>
   </si>
   <si>
     <t>邱〇在</t>
   </si>
   <si>
-    <t>1，527,000</t>
+    <t>1527000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -170,13 +203,10 @@
     <t>種類</t>
   </si>
   <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>遠東國際商業銀行永和分 行</t>
+    <t>遠東國際商業銀行永和分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -538,13 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,57 +596,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -634,107 +680,107 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -752,42 +798,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
@@ -808,24 +854,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>300000</v>
@@ -833,27 +879,27 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>400000</v>
@@ -874,36 +920,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>300000</v>
@@ -911,19 +957,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2">
         <v>1527000</v>
@@ -931,19 +977,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2">
         <v>400000</v>

--- a/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
+++ b/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -62,129 +62,84 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市永和區永福段08230000地號</t>
-  </si>
-  <si>
-    <t>5分之1</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市永和區永福段02017000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>邱若山</t>
   </si>
   <si>
-    <t>80年06月13日</t>
+    <t>80年06月130</t>
   </si>
   <si>
     <t>第一次登記</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-18</t>
+    <t>.(超過五年）‘</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>面積（平方公尺）</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>權利範圍(持分）</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>所有權人</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>變動時間</t>
+  </si>
+  <si>
+    <t>變動原因</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>變動時之價額</t>
+  </si>
+  <si>
+    <t>toyotarav4rod</t>
   </si>
   <si>
     <t>林淑芬</t>
   </si>
   <si>
-    <t>tmp7b501</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市永和區永福段02017000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>80年06月130</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>.(超過五年）‘</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>toyotarav4rod</t>
-  </si>
-  <si>
     <t>100年03月01曰</t>
   </si>
   <si>
     <t>nrry=*=r貝賣</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -197,19 +152,13 @@
     <t>1527000</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>遠東國際商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
   </si>
 </sst>
 </file>
@@ -568,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,51 +566,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1337</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -672,7 +580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -680,107 +588,80 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -790,52 +671,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1">
         <v>989000</v>
       </c>
     </row>
@@ -846,7 +704,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -854,54 +712,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="1">
+        <v>300000</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2">
-        <v>300000</v>
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -912,7 +756,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,78 +764,58 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>300000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2">
-        <v>300000</v>
+        <v>1527000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
-        <v>1527000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="2">
         <v>400000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
+++ b/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -68,70 +68,52 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市永和區永福段08230000地號</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>邱若山</t>
+  </si>
+  <si>
+    <t>80年06月13日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-18</t>
+  </si>
+  <si>
+    <t>林淑芬</t>
+  </si>
+  <si>
+    <t>tmp7b501</t>
+  </si>
+  <si>
     <t>新北市永和區永福段02017000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>邱若山</t>
-  </si>
-  <si>
     <t>80年06月130</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>.(超過五年）‘</t>
   </si>
   <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
     <t>toyotarav4rod</t>
-  </si>
-  <si>
-    <t>林淑芬</t>
   </si>
   <si>
     <t>100年03月01曰</t>
@@ -517,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,6 +553,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -580,88 +615,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="M2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -671,29 +731,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
+        <v>989000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
         <v>989000</v>
       </c>
     </row>
@@ -704,7 +787,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -723,29 +806,43 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>42</v>
       </c>
-      <c r="D3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
         <v>400000</v>
       </c>
     </row>
@@ -756,7 +853,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,13 +861,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -781,41 +878,61 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>1527000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1527000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
         <v>400000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
+++ b/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>.(超過五年）‘</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>toyotarav4rod</t>
@@ -731,38 +734,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>989000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -771,13 +795,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +840,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -809,7 +854,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -823,13 +868,13 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -837,10 +882,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>400000</v>
@@ -861,13 +906,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -881,13 +926,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -901,16 +946,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
         <v>1527000</v>
@@ -921,16 +966,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2">
         <v>400000</v>

--- a/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
+++ b/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -113,6 +113,9 @@
     <t>.(超過五年）‘</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
   </si>
   <si>
     <t>nrry=*=r貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -700,7 +706,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -786,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -795,16 +801,16 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>989000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -840,7 +846,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -854,7 +860,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -868,13 +874,13 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -882,10 +888,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>400000</v>
@@ -906,13 +912,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -926,13 +932,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -946,16 +952,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2">
         <v>1527000</v>
@@ -966,16 +972,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2">
         <v>400000</v>

--- a/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
+++ b/legislator/property/output/normal/林淑芬_2011-12-18_財產申報表_tmp7b501.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -131,6 +131,9 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -140,16 +143,25 @@
     <t>邱〇在</t>
   </si>
   <si>
-    <t>1527000</t>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>遠東國際商業銀行永和分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>遠東國際商業銀行永和分行</t>
+    <t>deposit</t>
   </si>
 </sst>
 </file>
@@ -838,29 +850,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -868,33 +901,96 @@
       <c r="D2" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1527000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>400000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1337</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -904,41 +1000,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -946,45 +1063,108 @@
       <c r="F2" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2">
         <v>1527000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2">
         <v>400000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1337</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
